--- a/cucumber/TestData/DataSet.xlsx
+++ b/cucumber/TestData/DataSet.xlsx
@@ -398,13 +398,16 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/cucumber/TestData/DataSet.xlsx
+++ b/cucumber/TestData/DataSet.xlsx
@@ -398,7 +398,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
